--- a/medicine/Enfance/David_Wautier/David_Wautier.xlsx
+++ b/medicine/Enfance/David_Wautier/David_Wautier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Wautier, né le 17 mars 1980 à Nivelles, (province de Brabant), est un auteur, illustrateur de livres jeunesse et auteur de bande dessinée belge.
 </t>
@@ -513,15 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse
-David Wautier naît le 17 mars 1980[1],[2] à Nivelles[3]. Il grandit dans cette ville[3]. Il indique avoir adoré enfant l'histoire de Spirou et Fantasio intitulée Les Hommes-grenouilles qui se passe à Cassis[3]. Plus tard, il se prend de passion pour le western avec les films de John Ford[3]. Il fait ses études en illustration à l'Institut Saint-Luc de Bruxelles[4]. Il a déjà à son actif la réalisation d'une affiche pour une pièce de théâtre, et son travail a déjà été plusieurs fois primé[3]. En 2000, David Wautier est sélectionné à l'occasion de l'exposition du Cartoon Festival de Knokke-Heist[1]. L'année suivante, il remporte le prix "coup de cœur" du concours de bande dessinée organisé dans le cadre du festival de Ganshoren[3]. En 2002, son projet d'affiche pour la semaine du livre de jeunesse est sélectionné pour une exposition itinérante présentée à l'occasion de la Foire du livre de Bruxelles[1].
-Auteur de littérature jeunesse
-Il est aussi un auteur et illustrateur de littérature d'enfance et de jeunesse[5]. Il publie deux albums dans la collection « Histoires comme ça » aux éditions Alice Jeunesse : Paul chasseur d'ogres et Herbert et la machine en 2003[4]. Il sort L'Étape du Tour de France dans le cadre de la Fureur de lire en 2021[4]. Il réalise seul l'album destiné aux enfants intitulé Montre-toi, Montagne ! publié aux éditions Le Diplodocus en 2022[6],[7].
-Il réalise de courts récits de bande dessinée et il collabore au magazine Capsule cosmique[4]. Il remplit ses carnets de croquis avec des dessins sur le vif[8]. En 2012, il découvre la montagne et il commence des carnets de voyage dans lesquels il développe le style qu’il utilisera dans ses illustrations et bandes dessinées[8].
-Auteur de bande dessinée
-En 2024, il sort le one shot La Vengeance[9],[10] aux éditions Anspach. Cette bande dessinée de western traite de la vengeance menée par un éleveur accompagné de ses enfants suite au meurtre de son épouse[9],[11].
-Autres  activités
-Par ailleurs, il est également auteur-compositeur. Il joue du piano. Il a créé le projet musical The musician, the dancer and the bird, dans lequel il chante et joue de la guitare accompagné par le batteur – et dessinateur Abdel de Bruxelles[1]. Il a composé une centaine de musiques instrumentales[1].
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David Wautier naît le 17 mars 1980, à Nivelles. Il grandit dans cette ville. Il indique avoir adoré enfant l'histoire de Spirou et Fantasio intitulée Les Hommes-grenouilles qui se passe à Cassis. Plus tard, il se prend de passion pour le western avec les films de John Ford. Il fait ses études en illustration à l'Institut Saint-Luc de Bruxelles. Il a déjà à son actif la réalisation d'une affiche pour une pièce de théâtre, et son travail a déjà été plusieurs fois primé. En 2000, David Wautier est sélectionné à l'occasion de l'exposition du Cartoon Festival de Knokke-Heist. L'année suivante, il remporte le prix "coup de cœur" du concours de bande dessinée organisé dans le cadre du festival de Ganshoren. En 2002, son projet d'affiche pour la semaine du livre de jeunesse est sélectionné pour une exposition itinérante présentée à l'occasion de la Foire du livre de Bruxelles.
 </t>
         </is>
       </c>
@@ -547,12 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vie privée</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il vit à Saint-Gilles après avoir habité à Ixelles[3].
+          <t>Auteur de littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est aussi un auteur et illustrateur de littérature d'enfance et de jeunesse. Il publie deux albums dans la collection « Histoires comme ça » aux éditions Alice Jeunesse : Paul chasseur d'ogres et Herbert et la machine en 2003. Il sort L'Étape du Tour de France dans le cadre de la Fureur de lire en 2021. Il réalise seul l'album destiné aux enfants intitulé Montre-toi, Montagne ! publié aux éditions Le Diplodocus en 2022,.
+Il réalise de courts récits de bande dessinée et il collabore au magazine Capsule cosmique. Il remplit ses carnets de croquis avec des dessins sur le vif. En 2012, il découvre la montagne et il commence des carnets de voyage dans lesquels il développe le style qu’il utilisera dans ses illustrations et bandes dessinées.
 </t>
         </is>
       </c>
@@ -578,20 +595,172 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auteur de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2024, il sort le one shot La Vengeance, aux éditions Anspach. Cette bande dessinée de western traite de la vengeance menée par un éleveur accompagné de ses enfants suite au meurtre de son épouse,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>David_Wautier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_Wautier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres  activités</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par ailleurs, il est également auteur-compositeur. Il joue du piano. Il a créé le projet musical The musician, the dancer and the bird, dans lequel il chante et joue de la guitare accompagné par le batteur – et dessinateur Abdel de Bruxelles. Il a composé une centaine de musiques instrumentales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>David_Wautier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_Wautier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vit à Saint-Gilles après avoir habité à Ixelles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>David_Wautier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_Wautier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Albums jeunesse
-Auteur et illustrateur
-Paul chasseur d’ogres[12], Bruxelles, Alice Jeunesse, coll. « Histoires comme ça », 2003  (ISBN 9782930182865)
-Herbert et la machine[13], Bruxelles, Alice Jeunesse, coll. « Histoires comme ça », 2003 (OCLC 1400610221)
-L'Étape du Tour de France[14], Fédération Wallonie-Bruxelles, Service général des Lettres et du Livre, 2021
-Montre-toi, Montagne[6] !, éditions Le Diplodocus, 2022  (ISBN 9791094908303)
-Bandes dessinées
-One shot
-La Vengeance[15],[16],[17],[18],[19], Éditions Anspach, Lasne, 15 mars 2024Scénario, dessin et couleurs : David Wautier -  (ISBN 978-2-931105-22-1)</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Albums jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Auteur et illustrateur</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Paul chasseur d’ogres, Bruxelles, Alice Jeunesse, coll. « Histoires comme ça », 2003  (ISBN 9782930182865)
+Herbert et la machine, Bruxelles, Alice Jeunesse, coll. « Histoires comme ça », 2003 (OCLC 1400610221)
+L'Étape du Tour de France, Fédération Wallonie-Bruxelles, Service général des Lettres et du Livre, 2021
+Montre-toi, Montagne !, éditions Le Diplodocus, 2022  (ISBN 9791094908303)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>David_Wautier</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_Wautier</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>One shot</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La Vengeance Éditions Anspach, Lasne, 15 mars 2024Scénario, dessin et couleurs : David Wautier -  (ISBN 978-2-931105-22-1)</t>
         </is>
       </c>
     </row>
